--- a/Accessories_Model.xlsx
+++ b/Accessories_Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spare Ageing Render\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBE99C0D-08D3-4E5A-B107-E04C6CA430EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ED4024-D0E6-4E19-817E-847E88294D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA9C3D6D-1F46-42F1-8136-72270173739B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t xml:space="preserve">PART NO </t>
   </si>
@@ -158,9 +158,6 @@
     <t>XUV500</t>
   </si>
   <si>
-    <t>AW600</t>
-  </si>
-  <si>
     <t>XUV700</t>
   </si>
   <si>
@@ -171,6 +168,15 @@
   </si>
   <si>
     <t>AX00</t>
+  </si>
+  <si>
+    <t>AW60</t>
+  </si>
+  <si>
+    <t>CK0</t>
+  </si>
+  <si>
+    <t>MW6</t>
   </si>
 </sst>
 </file>
@@ -206,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -266,11 +272,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -282,6 +323,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -618,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9613221-A25F-4B98-8C12-1BD0FE320400}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -792,18 +843,18 @@
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -811,23 +862,39 @@
         <v>38</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>43</v>
+      <c r="B25" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Accessories_Model.xlsx
+++ b/Accessories_Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spare Ageing Render\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ED4024-D0E6-4E19-817E-847E88294D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C1A98B-9DC6-4018-B6D2-3E1F9DE6E33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA9C3D6D-1F46-42F1-8136-72270173739B}"/>
   </bookViews>

--- a/Accessories_Model.xlsx
+++ b/Accessories_Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spare Ageing Render\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C1A98B-9DC6-4018-B6D2-3E1F9DE6E33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250262B6-6C28-4FC3-B015-D224FA3D55A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA9C3D6D-1F46-42F1-8136-72270173739B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t xml:space="preserve">PART NO </t>
   </si>
@@ -177,6 +177,33 @@
   </si>
   <si>
     <t>MW6</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>AE0</t>
+  </si>
+  <si>
+    <t>E2O</t>
+  </si>
+  <si>
+    <t>AI0</t>
+  </si>
+  <si>
+    <t>Imperio</t>
+  </si>
+  <si>
+    <t>BEM</t>
+  </si>
+  <si>
+    <t>BEV</t>
+  </si>
+  <si>
+    <t>CTU</t>
+  </si>
+  <si>
+    <t>TUV300</t>
   </si>
 </sst>
 </file>
@@ -212,64 +239,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -287,52 +262,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -669,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9613221-A25F-4B98-8C12-1BD0FE320400}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,220 +624,260 @@
     <col min="2" max="2" width="37.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="2" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Accessories_Model.xlsx
+++ b/Accessories_Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spare Ageing Render\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250262B6-6C28-4FC3-B015-D224FA3D55A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2A39C6-D29F-4AE3-8CF1-376956004DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA9C3D6D-1F46-42F1-8136-72270173739B}"/>
   </bookViews>
@@ -266,13 +266,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -615,7 +612,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,10 +622,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -852,7 +849,7 @@
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>49</v>
       </c>
     </row>
